--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/67/word_level_predictions_67.xlsx
@@ -7262,364 +7262,364 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>persists,</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/67/word_level_predictions_67.xlsx
@@ -7262,364 +7262,364 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>5</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>21</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>5</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>22</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>5</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>23</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>5</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>persists,</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>24</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>5</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>25</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>5</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>26</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" t="n">
         <v>5</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" t="n">
         <v>27</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
